--- a/feature_summary.xlsx
+++ b/feature_summary.xlsx
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31992.62597083192</v>
+        <v>30000</v>
       </c>
       <c r="C7" t="n">
         <v>30000</v>
@@ -697,10 +697,10 @@
         <v>2500</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33296.79953964361</v>
+        <v>30799.55585370677</v>
       </c>
       <c r="C8" t="n">
         <v>30000</v>
@@ -735,10 +735,10 @@
         <v>4500</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G8" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34185.45305923072</v>
+        <v>31582.07912526357</v>
       </c>
       <c r="C9" t="n">
         <v>30000</v>
@@ -773,10 +773,10 @@
         <v>6100</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G9" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C10" t="n">
         <v>30000</v>
@@ -811,10 +811,10 @@
         <v>7380</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G10" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>33519.43748014412</v>
+        <v>30991.75158158706</v>
       </c>
       <c r="C11" t="n">
         <v>30000</v>
@@ -849,10 +849,10 @@
         <v>4880</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G11" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32258.58031207752</v>
+        <v>30000</v>
       </c>
       <c r="C12" t="n">
         <v>30000</v>
@@ -887,10 +887,10 @@
         <v>2880</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31075.43742539147</v>
+        <v>30000</v>
       </c>
       <c r="C13" t="n">
         <v>30000</v>
@@ -925,10 +925,10 @@
         <v>1280</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>31992.62597083192</v>
+        <v>30000</v>
       </c>
       <c r="C15" t="n">
         <v>30000</v>
@@ -1001,10 +1001,10 @@
         <v>2500</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>33296.79953964361</v>
+        <v>30799.55585370677</v>
       </c>
       <c r="C16" t="n">
         <v>30000</v>
@@ -1039,10 +1039,10 @@
         <v>4500</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G16" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34185.45305923072</v>
+        <v>31582.07912526357</v>
       </c>
       <c r="C17" t="n">
         <v>30000</v>
@@ -1077,10 +1077,10 @@
         <v>6100</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G17" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C18" t="n">
         <v>30000</v>
@@ -1115,10 +1115,10 @@
         <v>7380</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G18" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>50920.98531404293</v>
+        <v>48393.29941548588</v>
       </c>
       <c r="C19" t="n">
         <v>30000</v>
@@ -1153,10 +1153,10 @@
         <v>4880</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G19" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H19" t="n">
         <v>6000</v>
@@ -1179,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>51892.26753430283</v>
+        <v>49633.68722222532</v>
       </c>
       <c r="C20" t="n">
         <v>30000</v>
@@ -1191,10 +1191,10 @@
         <v>2880</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>8400</v>
@@ -1217,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>50936.09185855123</v>
+        <v>49860.65443315975</v>
       </c>
       <c r="C21" t="n">
         <v>30000</v>
@@ -1229,10 +1229,10 @@
         <v>1280</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>9360</v>
@@ -1293,7 +1293,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42957.7935545179</v>
+        <v>40965.16758368598</v>
       </c>
       <c r="C23" t="n">
         <v>30000</v>
@@ -1305,10 +1305,10 @@
         <v>2500</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>3744</v>
@@ -1331,7 +1331,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>35243.43129802477</v>
+        <v>32746.18761208793</v>
       </c>
       <c r="C24" t="n">
         <v>30000</v>
@@ -1343,10 +1343,10 @@
         <v>4500</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G24" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H24" t="n">
         <v>1344</v>
@@ -1369,7 +1369,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>36000.18191704792</v>
+        <v>33331.6709396915</v>
       </c>
       <c r="C25" t="n">
         <v>30000</v>
@@ -1381,10 +1381,10 @@
         <v>9850</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5833695060137769</v>
+        <v>0.3165184082781347</v>
       </c>
       <c r="G25" t="n">
-        <v>5833.695060137769</v>
+        <v>3165.184082781347</v>
       </c>
       <c r="H25" t="n">
         <v>384.0000000000001</v>
@@ -1407,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>37152.09085133347</v>
+        <v>34611.58240782362</v>
       </c>
       <c r="C26" t="n">
         <v>30000</v>
@@ -1419,10 +1419,10 @@
         <v>14130</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7152090851333475</v>
+        <v>0.4611582407823619</v>
       </c>
       <c r="G26" t="n">
-        <v>7152.090851333474</v>
+        <v>4611.582407823619</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>37126.66325924921</v>
+        <v>34581.56344573718</v>
       </c>
       <c r="C27" t="n">
         <v>30000</v>
@@ -1457,10 +1457,10 @@
         <v>14030</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7126663259249209</v>
+        <v>0.4581563445737179</v>
       </c>
       <c r="G27" t="n">
-        <v>7126.663259249209</v>
+        <v>4581.563445737179</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>37106.15782060949</v>
+        <v>34557.42791070297</v>
       </c>
       <c r="C28" t="n">
         <v>30000</v>
@@ -1495,10 +1495,10 @@
         <v>13950</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7106157820609493</v>
+        <v>0.4557427910702976</v>
       </c>
       <c r="G28" t="n">
-        <v>7106.157820609494</v>
+        <v>4557.427910702976</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>35344.07478351054</v>
+        <v>32673.67532260784</v>
       </c>
       <c r="C29" t="n">
         <v>30000</v>
@@ -1533,10 +1533,10 @@
         <v>8600.000000000002</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5344074783510535</v>
+        <v>0.2673675322607842</v>
       </c>
       <c r="G29" t="n">
-        <v>5344.074783510535</v>
+        <v>2673.675322607843</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>33188.68572820453</v>
+        <v>30707.08985278797</v>
       </c>
       <c r="C30" t="n">
         <v>30000</v>
@@ -1571,10 +1571,10 @@
         <v>4320.000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3188685728204529</v>
+        <v>0.07070898527879654</v>
       </c>
       <c r="G30" t="n">
-        <v>3188.685728204529</v>
+        <v>707.0898527879655</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>33248.96245052692</v>
+        <v>30758.57398748035</v>
       </c>
       <c r="C31" t="n">
         <v>30000</v>
@@ -1609,10 +1609,10 @@
         <v>4420</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3248962450526921</v>
+        <v>0.07585739874803565</v>
       </c>
       <c r="G31" t="n">
-        <v>3248.962450526921</v>
+        <v>758.5739874803565</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>33296.79953964361</v>
+        <v>30799.55585370677</v>
       </c>
       <c r="C32" t="n">
         <v>30000</v>
@@ -1647,10 +1647,10 @@
         <v>4500</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G32" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34185.45305923072</v>
+        <v>31582.07912526357</v>
       </c>
       <c r="C33" t="n">
         <v>30000</v>
@@ -1685,10 +1685,10 @@
         <v>6100</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G33" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C34" t="n">
         <v>30000</v>
@@ -1723,10 +1723,10 @@
         <v>7380</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G34" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33519.43748014412</v>
+        <v>30991.75158158706</v>
       </c>
       <c r="C35" t="n">
         <v>30000</v>
@@ -1761,10 +1761,10 @@
         <v>4880</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G35" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>32258.58031207752</v>
+        <v>30000</v>
       </c>
       <c r="C36" t="n">
         <v>30000</v>
@@ -1799,10 +1799,10 @@
         <v>2880</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31075.43742539147</v>
+        <v>30000</v>
       </c>
       <c r="C37" t="n">
         <v>30000</v>
@@ -1837,10 +1837,10 @@
         <v>1280</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>49394.17380473073</v>
+        <v>47401.54783389881</v>
       </c>
       <c r="C39" t="n">
         <v>30000</v>
@@ -1913,10 +1913,10 @@
         <v>2500</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>6000</v>
@@ -1939,7 +1939,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>52930.48676186892</v>
+        <v>50433.24307593209</v>
       </c>
       <c r="C40" t="n">
         <v>30000</v>
@@ -1951,10 +1951,10 @@
         <v>4500</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G40" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H40" t="n">
         <v>8400</v>
@@ -1977,7 +1977,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>54046.10749239048</v>
+        <v>51442.73355842333</v>
       </c>
       <c r="C41" t="n">
         <v>30000</v>
@@ -1989,10 +1989,10 @@
         <v>6100</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G41" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H41" t="n">
         <v>9360</v>
@@ -2015,7 +2015,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>54718.83567006505</v>
+        <v>52067.96313666012</v>
       </c>
       <c r="C42" t="n">
         <v>30000</v>
@@ -2027,10 +2027,10 @@
         <v>7380</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G42" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H42" t="n">
         <v>9744</v>
@@ -2053,7 +2053,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>44484.60506383009</v>
+        <v>41956.91916527304</v>
       </c>
       <c r="C43" t="n">
         <v>30000</v>
@@ -2065,10 +2065,10 @@
         <v>4880</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G43" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H43" t="n">
         <v>3744</v>
@@ -2091,7 +2091,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34205.21207045868</v>
+        <v>31946.63175838116</v>
       </c>
       <c r="C44" t="n">
         <v>30000</v>
@@ -2103,10 +2103,10 @@
         <v>2880</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>1344</v>
@@ -2129,7 +2129,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31241.92428230162</v>
+        <v>30166.48685691015</v>
       </c>
       <c r="C45" t="n">
         <v>30000</v>
@@ -2141,10 +2141,10 @@
         <v>1280</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>384.0000000000001</v>
@@ -2205,7 +2205,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>31992.62597083192</v>
+        <v>30000</v>
       </c>
       <c r="C47" t="n">
         <v>30000</v>
@@ -2217,10 +2217,10 @@
         <v>2500</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>33296.79953964361</v>
+        <v>30799.55585370677</v>
       </c>
       <c r="C48" t="n">
         <v>30000</v>
@@ -2255,10 +2255,10 @@
         <v>4500</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G48" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34185.45305923072</v>
+        <v>31582.07912526357</v>
       </c>
       <c r="C49" t="n">
         <v>30000</v>
@@ -2293,10 +2293,10 @@
         <v>6100</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G49" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C50" t="n">
         <v>30000</v>
@@ -2331,10 +2331,10 @@
         <v>7380</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G50" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>35356.47404439229</v>
+        <v>32685.87569393656</v>
       </c>
       <c r="C51" t="n">
         <v>30000</v>
@@ -2369,10 +2369,10 @@
         <v>8630</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5356474044392288</v>
+        <v>0.2685875693936562</v>
       </c>
       <c r="G51" t="n">
-        <v>5356.474044392287</v>
+        <v>2685.875693936563</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>35751.41879538076</v>
+        <v>33081.13485591816</v>
       </c>
       <c r="C52" t="n">
         <v>30000</v>
@@ -2407,10 +2407,10 @@
         <v>9630</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5751418795380754</v>
+        <v>0.3081134855918165</v>
       </c>
       <c r="G52" t="n">
-        <v>5751.418795380754</v>
+        <v>3081.134855918165</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>36043.0481980255</v>
+        <v>33381.9066477075</v>
       </c>
       <c r="C53" t="n">
         <v>30000</v>
@@ -2445,10 +2445,10 @@
         <v>10430</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6043048198025496</v>
+        <v>0.3381906647707504</v>
       </c>
       <c r="G53" t="n">
-        <v>6043.048198025495</v>
+        <v>3381.906647707504</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>36261.87147054533</v>
+        <v>33613.08248705333</v>
       </c>
       <c r="C54" t="n">
         <v>30000</v>
@@ -2483,10 +2483,10 @@
         <v>11070</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6261871470545335</v>
+        <v>0.3613082487053333</v>
       </c>
       <c r="G54" t="n">
-        <v>6261.871470545335</v>
+        <v>3613.082487053333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>35822.57008692643</v>
+        <v>33153.78322484346</v>
       </c>
       <c r="C55" t="n">
         <v>30000</v>
@@ -2521,10 +2521,10 @@
         <v>9820</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5822570086926431</v>
+        <v>0.3153783224843455</v>
       </c>
       <c r="G55" t="n">
-        <v>5822.570086926431</v>
+        <v>3153.783224843455</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>35434.23950376685</v>
+        <v>32762.67430033906</v>
       </c>
       <c r="C56" t="n">
         <v>30000</v>
@@ -2559,10 +2559,10 @@
         <v>8820</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5434239503766853</v>
+        <v>0.2762674300339062</v>
       </c>
       <c r="G56" t="n">
-        <v>5434.239503766853</v>
+        <v>2762.674300339062</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>35097.74058420179</v>
+        <v>32433.76032125534</v>
       </c>
       <c r="C57" t="n">
         <v>30000</v>
@@ -2597,10 +2597,10 @@
         <v>8020.000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5097740584201793</v>
+        <v>0.2433760321255342</v>
       </c>
       <c r="G57" t="n">
-        <v>5097.740584201793</v>
+        <v>2433.760321255342</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C58" t="n">
         <v>30000</v>
@@ -2635,10 +2635,10 @@
         <v>7380</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G58" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>50920.98531404293</v>
+        <v>48393.29941548588</v>
       </c>
       <c r="C59" t="n">
         <v>30000</v>
@@ -2673,10 +2673,10 @@
         <v>4880</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G59" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H59" t="n">
         <v>6000</v>
@@ -2699,7 +2699,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>51892.26753430283</v>
+        <v>49633.68722222532</v>
       </c>
       <c r="C60" t="n">
         <v>30000</v>
@@ -2711,10 +2711,10 @@
         <v>2880</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>8400</v>
@@ -2737,7 +2737,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>50936.09185855123</v>
+        <v>49860.65443315975</v>
       </c>
       <c r="C61" t="n">
         <v>30000</v>
@@ -2749,10 +2749,10 @@
         <v>1280</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>9360</v>
@@ -2813,7 +2813,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>42957.7935545179</v>
+        <v>40965.16758368598</v>
       </c>
       <c r="C63" t="n">
         <v>30000</v>
@@ -2825,10 +2825,10 @@
         <v>2500</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>3744</v>
@@ -2851,7 +2851,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>35243.43129802477</v>
+        <v>32746.18761208793</v>
       </c>
       <c r="C64" t="n">
         <v>30000</v>
@@ -2863,10 +2863,10 @@
         <v>4500</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G64" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H64" t="n">
         <v>1344</v>
@@ -2889,7 +2889,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34351.93991614087</v>
+        <v>31748.56598217372</v>
       </c>
       <c r="C65" t="n">
         <v>30000</v>
@@ -2901,10 +2901,10 @@
         <v>6100</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G65" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H65" t="n">
         <v>384.0000000000001</v>
@@ -2927,7 +2927,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C66" t="n">
         <v>30000</v>
@@ -2939,10 +2939,10 @@
         <v>7380</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G66" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>33519.43748014412</v>
+        <v>30991.75158158706</v>
       </c>
       <c r="C67" t="n">
         <v>30000</v>
@@ -2977,10 +2977,10 @@
         <v>4880</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G67" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>32258.58031207752</v>
+        <v>30000</v>
       </c>
       <c r="C68" t="n">
         <v>30000</v>
@@ -3015,10 +3015,10 @@
         <v>2880</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>31075.43742539147</v>
+        <v>30000</v>
       </c>
       <c r="C69" t="n">
         <v>30000</v>
@@ -3053,10 +3053,10 @@
         <v>1280</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>31992.62597083192</v>
+        <v>30000</v>
       </c>
       <c r="C71" t="n">
         <v>30000</v>
@@ -3129,10 +3129,10 @@
         <v>2500</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>33296.79953964361</v>
+        <v>30799.55585370677</v>
       </c>
       <c r="C72" t="n">
         <v>30000</v>
@@ -3167,10 +3167,10 @@
         <v>4500</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G72" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34185.45305923072</v>
+        <v>31582.07912526357</v>
       </c>
       <c r="C73" t="n">
         <v>30000</v>
@@ -3205,10 +3205,10 @@
         <v>6100</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G73" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C74" t="n">
         <v>30000</v>
@@ -3243,10 +3243,10 @@
         <v>7380</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G74" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>33519.43748014412</v>
+        <v>30991.75158158706</v>
       </c>
       <c r="C75" t="n">
         <v>30000</v>
@@ -3281,10 +3281,10 @@
         <v>4880</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G75" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>32258.58031207752</v>
+        <v>30000</v>
       </c>
       <c r="C76" t="n">
         <v>30000</v>
@@ -3319,10 +3319,10 @@
         <v>2880</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33605.27148211796</v>
+        <v>31066.50839904778</v>
       </c>
       <c r="C77" t="n">
         <v>30000</v>
@@ -3357,10 +3357,10 @@
         <v>5030</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3605271482117962</v>
+        <v>0.1066508399047779</v>
       </c>
       <c r="G77" t="n">
-        <v>3605.271482117962</v>
+        <v>1066.508399047779</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34511.88363905974</v>
+        <v>31880.63653849365</v>
       </c>
       <c r="C78" t="n">
         <v>30000</v>
@@ -3395,10 +3395,10 @@
         <v>6750</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4511883639059736</v>
+        <v>0.1880636538493651</v>
       </c>
       <c r="G78" t="n">
-        <v>4511.883639059736</v>
+        <v>1880.636538493651</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>53851.25695645597</v>
+        <v>51217.1506466116</v>
       </c>
       <c r="C79" t="n">
         <v>30000</v>
@@ -3433,10 +3433,10 @@
         <v>11650</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6449709122557156</v>
+        <v>0.3815602812712795</v>
       </c>
       <c r="G79" t="n">
-        <v>6449.709122557156</v>
+        <v>3815.602812712795</v>
       </c>
       <c r="H79" t="n">
         <v>6000</v>
@@ -3459,7 +3459,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>57127.94473427413</v>
+        <v>54659.55086172998</v>
       </c>
       <c r="C80" t="n">
         <v>30000</v>
@@ -3471,10 +3471,10 @@
         <v>15570</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7494257512048812</v>
+        <v>0.5025863639504666</v>
       </c>
       <c r="G80" t="n">
-        <v>7494.257512048812</v>
+        <v>5025.863639504666</v>
       </c>
       <c r="H80" t="n">
         <v>8400</v>
@@ -3497,7 +3497,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>56827.21772433855</v>
+        <v>54255.44621710073</v>
       </c>
       <c r="C81" t="n">
         <v>30000</v>
@@ -3509,10 +3509,10 @@
         <v>13420</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6966563291178796</v>
+        <v>0.4394791783940969</v>
       </c>
       <c r="G81" t="n">
-        <v>6966.563291178795</v>
+        <v>4394.791783940969</v>
       </c>
       <c r="H81" t="n">
         <v>9360</v>
@@ -3535,7 +3535,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>56373.51765206664</v>
+        <v>53740.82232796284</v>
       </c>
       <c r="C82" t="n">
         <v>30000</v>
@@ -3547,10 +3547,10 @@
         <v>11700</v>
       </c>
       <c r="F82" t="n">
-        <v>0.64654531804122</v>
+        <v>0.3832757856308393</v>
       </c>
       <c r="G82" t="n">
-        <v>6465.4531804122</v>
+        <v>3832.757856308393</v>
       </c>
       <c r="H82" t="n">
         <v>9744</v>
@@ -3573,7 +3573,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>45501.38872761069</v>
+        <v>42868.32661385222</v>
       </c>
       <c r="C83" t="n">
         <v>30000</v>
@@ -3585,10 +3585,10 @@
         <v>6800.000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4536221143924714</v>
+        <v>0.1903159030166236</v>
       </c>
       <c r="G83" t="n">
-        <v>4536.221143924714</v>
+        <v>1903.159030166236</v>
       </c>
       <c r="H83" t="n">
         <v>3744</v>
@@ -3611,7 +3611,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>34205.21207045868</v>
+        <v>31946.63175838116</v>
       </c>
       <c r="C84" t="n">
         <v>30000</v>
@@ -3623,10 +3623,10 @@
         <v>2880</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>1344</v>
@@ -3649,7 +3649,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>31241.92428230162</v>
+        <v>30166.48685691015</v>
       </c>
       <c r="C85" t="n">
         <v>30000</v>
@@ -3661,10 +3661,10 @@
         <v>1280</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>384.0000000000001</v>
@@ -3725,7 +3725,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>31992.62597083192</v>
+        <v>30000</v>
       </c>
       <c r="C87" t="n">
         <v>30000</v>
@@ -3737,10 +3737,10 @@
         <v>2500</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>33296.79953964361</v>
+        <v>30799.55585370677</v>
       </c>
       <c r="C88" t="n">
         <v>30000</v>
@@ -3775,10 +3775,10 @@
         <v>4500</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G88" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>34185.45305923072</v>
+        <v>31582.07912526357</v>
       </c>
       <c r="C89" t="n">
         <v>30000</v>
@@ -3813,10 +3813,10 @@
         <v>6100</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G89" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C90" t="n">
         <v>30000</v>
@@ -3851,10 +3851,10 @@
         <v>7380</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G90" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>33519.43748014412</v>
+        <v>30991.75158158706</v>
       </c>
       <c r="C91" t="n">
         <v>30000</v>
@@ -3889,10 +3889,10 @@
         <v>4880</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G91" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>32258.58031207752</v>
+        <v>30000</v>
       </c>
       <c r="C92" t="n">
         <v>30000</v>
@@ -3927,10 +3927,10 @@
         <v>2880</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>31075.43742539147</v>
+        <v>30000</v>
       </c>
       <c r="C93" t="n">
         <v>30000</v>
@@ -3965,10 +3965,10 @@
         <v>1280</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>31992.62597083192</v>
+        <v>30000</v>
       </c>
       <c r="C95" t="n">
         <v>30000</v>
@@ -4041,10 +4041,10 @@
         <v>2500</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>33296.79953964361</v>
+        <v>30799.55585370677</v>
       </c>
       <c r="C96" t="n">
         <v>30000</v>
@@ -4079,10 +4079,10 @@
         <v>4500</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G96" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>34185.45305923072</v>
+        <v>31582.07912526357</v>
       </c>
       <c r="C97" t="n">
         <v>30000</v>
@@ -4117,10 +4117,10 @@
         <v>6100</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G97" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C98" t="n">
         <v>30000</v>
@@ -4155,10 +4155,10 @@
         <v>7380</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G98" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>50920.98531404293</v>
+        <v>48393.29941548588</v>
       </c>
       <c r="C99" t="n">
         <v>30000</v>
@@ -4193,10 +4193,10 @@
         <v>4880</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G99" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H99" t="n">
         <v>6000</v>
@@ -4219,7 +4219,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>51892.26753430283</v>
+        <v>49633.68722222532</v>
       </c>
       <c r="C100" t="n">
         <v>30000</v>
@@ -4231,10 +4231,10 @@
         <v>2880</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>8400</v>
@@ -4257,7 +4257,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>50936.09185855123</v>
+        <v>49860.65443315975</v>
       </c>
       <c r="C101" t="n">
         <v>30000</v>
@@ -4269,10 +4269,10 @@
         <v>1280</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>9360</v>
@@ -4333,7 +4333,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>45227.63337631165</v>
+        <v>42617.10457087809</v>
       </c>
       <c r="C103" t="n">
         <v>30000</v>
@@ -4345,10 +4345,10 @@
         <v>6250</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4262465792625673</v>
+        <v>0.1651936987192106</v>
       </c>
       <c r="G103" t="n">
-        <v>4262.465792625672</v>
+        <v>1651.936987192106</v>
       </c>
       <c r="H103" t="n">
         <v>3744</v>
@@ -4371,7 +4371,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>38267.83734666674</v>
+        <v>35623.26513651866</v>
       </c>
       <c r="C104" t="n">
         <v>30000</v>
@@ -4383,10 +4383,10 @@
         <v>11250</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6321205588285577</v>
+        <v>0.3676633378137503</v>
       </c>
       <c r="G104" t="n">
-        <v>6321.205588285577</v>
+        <v>3676.633378137503</v>
       </c>
       <c r="H104" t="n">
         <v>1344</v>
@@ -4409,7 +4409,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>37588.44655492352</v>
+        <v>35103.13069042915</v>
       </c>
       <c r="C105" t="n">
         <v>30000</v>
@@ -4421,10 +4421,10 @@
         <v>15250</v>
       </c>
       <c r="F105" t="n">
-        <v>0.742195969801337</v>
+        <v>0.4936643833518993</v>
       </c>
       <c r="G105" t="n">
-        <v>7421.959698013369</v>
+        <v>4936.643833518993</v>
       </c>
       <c r="H105" t="n">
         <v>384.0000000000001</v>
@@ -4447,7 +4447,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>38060.19957709108</v>
+        <v>35761.32059493291</v>
       </c>
       <c r="C106" t="n">
         <v>30000</v>
@@ -4459,10 +4459,10 @@
         <v>18450</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8060199577091081</v>
+        <v>0.5761320594932905</v>
       </c>
       <c r="G106" t="n">
-        <v>8060.199577091081</v>
+        <v>5761.320594932905</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>36619.10438735906</v>
+        <v>34001.71267958492</v>
       </c>
       <c r="C107" t="n">
         <v>30000</v>
@@ -4497,10 +4497,10 @@
         <v>12200</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6619104387359058</v>
+        <v>0.4001712679584917</v>
       </c>
       <c r="G107" t="n">
-        <v>6619.104387359058</v>
+        <v>4001.712679584917</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>34727.07575956952</v>
+        <v>32081.10433663218</v>
       </c>
       <c r="C108" t="n">
         <v>30000</v>
@@ -4535,10 +4535,10 @@
         <v>7200.000000000002</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4727075759569516</v>
+        <v>0.2081104336632185</v>
       </c>
       <c r="G108" t="n">
-        <v>4727.075759569516</v>
+        <v>2081.104336632185</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4561,7 +4561,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>32475.67843910697</v>
+        <v>30110.49610706078</v>
       </c>
       <c r="C109" t="n">
         <v>30000</v>
@@ -4573,10 +4573,10 @@
         <v>3200.000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2475678439106969</v>
+        <v>0.01104961070607768</v>
       </c>
       <c r="G109" t="n">
-        <v>2475.678439106969</v>
+        <v>110.4961070607768</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>31992.62597083192</v>
+        <v>30000</v>
       </c>
       <c r="C111" t="n">
         <v>30000</v>
@@ -4649,10 +4649,10 @@
         <v>2500</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>33296.79953964361</v>
+        <v>30799.55585370677</v>
       </c>
       <c r="C112" t="n">
         <v>30000</v>
@@ -4687,10 +4687,10 @@
         <v>4500</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G112" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>34185.45305923072</v>
+        <v>31582.07912526357</v>
       </c>
       <c r="C113" t="n">
         <v>30000</v>
@@ -4725,10 +4725,10 @@
         <v>6100</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G113" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C114" t="n">
         <v>30000</v>
@@ -4763,10 +4763,10 @@
         <v>7380</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G114" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>33519.43748014412</v>
+        <v>30991.75158158706</v>
       </c>
       <c r="C115" t="n">
         <v>30000</v>
@@ -4801,10 +4801,10 @@
         <v>4880</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G115" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>32258.58031207752</v>
+        <v>30000</v>
       </c>
       <c r="C116" t="n">
         <v>30000</v>
@@ -4839,10 +4839,10 @@
         <v>2880</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>31075.43742539147</v>
+        <v>30000</v>
       </c>
       <c r="C117" t="n">
         <v>30000</v>
@@ -4877,10 +4877,10 @@
         <v>1280</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>49394.17380473073</v>
+        <v>47401.54783389881</v>
       </c>
       <c r="C119" t="n">
         <v>30000</v>
@@ -4953,10 +4953,10 @@
         <v>2500</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>6000</v>
@@ -4979,7 +4979,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>52930.48676186892</v>
+        <v>50433.24307593209</v>
       </c>
       <c r="C120" t="n">
         <v>30000</v>
@@ -4991,10 +4991,10 @@
         <v>4500</v>
       </c>
       <c r="F120" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G120" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H120" t="n">
         <v>8400</v>
@@ -5017,7 +5017,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>54046.10749239048</v>
+        <v>51442.73355842333</v>
       </c>
       <c r="C121" t="n">
         <v>30000</v>
@@ -5029,10 +5029,10 @@
         <v>6100</v>
       </c>
       <c r="F121" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G121" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H121" t="n">
         <v>9360</v>
@@ -5055,7 +5055,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>54718.83567006505</v>
+        <v>52067.96313666012</v>
       </c>
       <c r="C122" t="n">
         <v>30000</v>
@@ -5067,10 +5067,10 @@
         <v>7380</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G122" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H122" t="n">
         <v>9744</v>
@@ -5093,7 +5093,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>44484.60506383009</v>
+        <v>41956.91916527304</v>
       </c>
       <c r="C123" t="n">
         <v>30000</v>
@@ -5105,10 +5105,10 @@
         <v>4880</v>
       </c>
       <c r="F123" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G123" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H123" t="n">
         <v>3744</v>
@@ -5131,7 +5131,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>34205.21207045868</v>
+        <v>31946.63175838116</v>
       </c>
       <c r="C124" t="n">
         <v>30000</v>
@@ -5143,10 +5143,10 @@
         <v>2880</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>1344</v>
@@ -5169,7 +5169,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>31241.92428230162</v>
+        <v>30166.48685691015</v>
       </c>
       <c r="C125" t="n">
         <v>30000</v>
@@ -5181,10 +5181,10 @@
         <v>1280</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
         <v>384.0000000000001</v>
@@ -5245,7 +5245,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>31992.62597083192</v>
+        <v>30000</v>
       </c>
       <c r="C127" t="n">
         <v>30000</v>
@@ -5257,10 +5257,10 @@
         <v>2500</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1992625970831919</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1992.625970831919</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>33296.79953964361</v>
+        <v>30799.55585370677</v>
       </c>
       <c r="C128" t="n">
         <v>30000</v>
@@ -5295,10 +5295,10 @@
         <v>4500</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G128" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>35833.69506013777</v>
+        <v>33165.18408278135</v>
       </c>
       <c r="C129" t="n">
         <v>30000</v>
@@ -5333,10 +5333,10 @@
         <v>9850</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5833695060137769</v>
+        <v>0.3165184082781347</v>
       </c>
       <c r="G129" t="n">
-        <v>5833.695060137769</v>
+        <v>3165.184082781347</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>37152.09085133347</v>
+        <v>34611.58240782362</v>
       </c>
       <c r="C130" t="n">
         <v>30000</v>
@@ -5371,10 +5371,10 @@
         <v>14130</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7152090851333475</v>
+        <v>0.4611582407823619</v>
       </c>
       <c r="G130" t="n">
-        <v>7152.090851333474</v>
+        <v>4611.582407823619</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>37126.66325924921</v>
+        <v>34581.56344573718</v>
       </c>
       <c r="C131" t="n">
         <v>30000</v>
@@ -5409,10 +5409,10 @@
         <v>14030</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7126663259249209</v>
+        <v>0.4581563445737179</v>
       </c>
       <c r="G131" t="n">
-        <v>7126.663259249209</v>
+        <v>4581.563445737179</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>37106.15782060949</v>
+        <v>34557.42791070297</v>
       </c>
       <c r="C132" t="n">
         <v>30000</v>
@@ -5447,10 +5447,10 @@
         <v>13950</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7106157820609493</v>
+        <v>0.4557427910702976</v>
       </c>
       <c r="G132" t="n">
-        <v>7106.157820609494</v>
+        <v>4557.427910702976</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>35344.07478351054</v>
+        <v>32673.67532260784</v>
       </c>
       <c r="C133" t="n">
         <v>30000</v>
@@ -5485,10 +5485,10 @@
         <v>8600.000000000002</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5344074783510535</v>
+        <v>0.2673675322607842</v>
       </c>
       <c r="G133" t="n">
-        <v>5344.074783510535</v>
+        <v>2673.675322607843</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>33188.68572820453</v>
+        <v>30707.08985278797</v>
       </c>
       <c r="C134" t="n">
         <v>30000</v>
@@ -5523,10 +5523,10 @@
         <v>4320.000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3188685728204529</v>
+        <v>0.07070898527879654</v>
       </c>
       <c r="G134" t="n">
-        <v>3188.685728204529</v>
+        <v>707.0898527879655</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5549,7 +5549,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>33248.96245052692</v>
+        <v>30758.57398748035</v>
       </c>
       <c r="C135" t="n">
         <v>30000</v>
@@ -5561,10 +5561,10 @@
         <v>4420</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3248962450526921</v>
+        <v>0.07585739874803565</v>
       </c>
       <c r="G135" t="n">
-        <v>3248.962450526921</v>
+        <v>758.5739874803565</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>33296.79953964361</v>
+        <v>30799.55585370677</v>
       </c>
       <c r="C136" t="n">
         <v>30000</v>
@@ -5599,10 +5599,10 @@
         <v>4500</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3296799539643607</v>
+        <v>0.07995558537067671</v>
       </c>
       <c r="G136" t="n">
-        <v>3296.799539643607</v>
+        <v>799.555853706767</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>34185.45305923072</v>
+        <v>31582.07912526357</v>
       </c>
       <c r="C137" t="n">
         <v>30000</v>
@@ -5637,10 +5637,10 @@
         <v>6100</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4185453059230717</v>
+        <v>0.1582079125263571</v>
       </c>
       <c r="G137" t="n">
-        <v>4185.453059230717</v>
+        <v>1582.079125263571</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>34810.7711984106</v>
+        <v>32159.89866500568</v>
       </c>
       <c r="C138" t="n">
         <v>30000</v>
@@ -5675,10 +5675,10 @@
         <v>7380</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4810771198410596</v>
+        <v>0.2159898665005685</v>
       </c>
       <c r="G138" t="n">
-        <v>4810.771198410596</v>
+        <v>2159.898665005685</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>50920.98531404293</v>
+        <v>48393.29941548588</v>
       </c>
       <c r="C139" t="n">
         <v>30000</v>
@@ -5713,10 +5713,10 @@
         <v>4880</v>
       </c>
       <c r="F139" t="n">
-        <v>0.3519437480144119</v>
+        <v>0.09917515815870614</v>
       </c>
       <c r="G139" t="n">
-        <v>3519.437480144119</v>
+        <v>991.7515815870614</v>
       </c>
       <c r="H139" t="n">
         <v>6000</v>
@@ -5739,7 +5739,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>51892.26753430283</v>
+        <v>49633.68722222532</v>
       </c>
       <c r="C140" t="n">
         <v>30000</v>
@@ -5751,10 +5751,10 @@
         <v>2880</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2258580312077517</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>2258.580312077517</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>8400</v>
@@ -5777,7 +5777,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>50936.09185855123</v>
+        <v>49860.65443315975</v>
       </c>
       <c r="C141" t="n">
         <v>30000</v>
@@ -5789,10 +5789,10 @@
         <v>1280</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1075437425391473</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1075.437425391473</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>9360</v>
